--- a/Excel-XLSX/UN-GIB.xlsx
+++ b/Excel-XLSX/UN-GIB.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>u2UuL2</t>
+    <t>NC6dv6</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-GIB.xlsx
+++ b/Excel-XLSX/UN-GIB.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>NC6dv6</t>
+    <t>QuO8At</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-GIB.xlsx
+++ b/Excel-XLSX/UN-GIB.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>QuO8At</t>
+    <t>43p1yW</t>
   </si>
   <si>
     <t>0</t>
